--- a/meal_optimisation/Past 2 Weeks.xlsx
+++ b/meal_optimisation/Past 2 Weeks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6740" yWindow="2860" windowWidth="25600" windowHeight="14200"/>
+    <workbookView xWindow="3240" yWindow="1940" windowWidth="23620" windowHeight="9200"/>
   </bookViews>
   <sheets>
     <sheet name="Order History" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="K11" sqref="A2:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
